--- a/pred_ohlcv/54_21/2019-10-21 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 OGO ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>36261.65149999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>36271.65149999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>42694.65149999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>42694.65149999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>81509.5282</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>87509.5282</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2247781.742542825</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2247781.742542825</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1916214.605842825</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1991207.661242825</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1935248.804842825</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1935248.804842825</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1935237.804842825</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1815982.097342825</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1802525.123842825</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1781482.447742825</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1781482.447742825</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1953532.053242825</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1350034.245742825</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1369520.072042825</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>564014.5659428256</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>536411.5659428256</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>540810.5659428256</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>540810.5659428256</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>549612.5757428256</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>546431.5757428256</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>546431.5757428256</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 OGO ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>36271.65149999999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>42694.65149999999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>42694.65149999999</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>81509.5282</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>87509.5282</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2247781.742542825</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2247781.742542825</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1916214.605842825</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1991207.661242825</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1935248.804842825</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1935248.804842825</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1935237.804842825</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1827021.109142825</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1815982.097342825</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1802525.123842825</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1781482.447742825</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>564014.5659428256</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>536411.5659428256</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>540810.5659428256</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>540810.5659428256</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>549612.5757428256</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>546431.5757428256</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>546431.5757428256</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
